--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2023/Tháng2/NKBH_BaoHanh_150223.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2023/Tháng2/NKBH_BaoHanh_150223.xlsx
@@ -105,19 +105,19 @@
     <t>Thiết bị lỗi đã bóc khay sim</t>
   </si>
   <si>
-    <t>00320009DC</t>
-  </si>
-  <si>
-    <t>Ngày:  15 Tháng 02 Năm 2023</t>
-  </si>
-  <si>
     <t>Họ và tên người đề nghị: Hà Văn Thể</t>
   </si>
   <si>
     <t>Hà Văn Thể</t>
   </si>
   <si>
-    <t>Nhập kho thiết bị lỗi bóc linh kiện thay thế ĐL anh Tuấn Ninh Bình &amp; ĐL Victory</t>
+    <t>Ngày:  16 Tháng 02 Năm 2023</t>
+  </si>
+  <si>
+    <t>0032001F59/ WP21110052S00090</t>
+  </si>
+  <si>
+    <t>Nhập kho thiết bị lỗi bóc linh kiện thay thế ĐL Anh Thái Quy Nhơn &amp; ĐL Victory</t>
   </si>
 </sst>
 </file>
@@ -411,6 +411,54 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -424,54 +472,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -514,7 +514,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -888,7 +888,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="K9" sqref="K9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -910,67 +910,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="22" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="29" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="29"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="29" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="29"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="29" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="29"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="A4" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -980,35 +980,35 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1039,57 +1039,57 @@
       <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17" t="s">
+      <c r="H8" s="33"/>
+      <c r="I8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17" t="s">
+      <c r="J8" s="33"/>
+      <c r="K8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="33"/>
       <c r="M8" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="35"/>
+      <c r="C9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="18"/>
       <c r="E9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="16">
         <v>2</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="16" t="s">
         <v>26</v>
       </c>
@@ -1110,50 +1110,50 @@
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31" t="s">
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="31"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="32"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32" t="s">
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="32"/>
+      <c r="M12" s="23"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
@@ -1195,33 +1195,33 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="30"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="6:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F17" s="5"/>
@@ -1240,6 +1240,19 @@
     <row r="25" spans="6:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="E1:K3"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="C9:D9"/>
@@ -1256,19 +1269,6 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="E1:K3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1" right="1" top="1.5" bottom="1.5" header="0" footer="0"/>
